--- a/biology/Zoologie/Caradrina/Caradrina.xlsx
+++ b/biology/Zoologie/Caradrina/Caradrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Caradrina regroupe des lépidoptères (papillons) nocturnes de la famille des Noctuidae, de la sous-famille des Noctuinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-genres rencontrés en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Caradrina (Boursinidrina)
 Caradrina (Caradrina)
@@ -546,7 +560,9 @@
           <t>Espèces du sous-genre Caradrina (Caradrina) rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Caradrina agrotina Staudinger 1892 ou Caradrina (Caradrina) agrotina
 Caradrina morpheus (Hufnagel, 1766) ou Caradrina (Caradrina) morpheus
@@ -580,9 +596,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (15 mars 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (15 mars 2019) :
 Caradrina atrostriga (Barnes &amp; McDunnough, 1912)
 Caradrina beta (Barnes &amp; Benjamin, 1926)
 Caradrina camina (Smith, 1894)
